--- a/SpreadsheetSerializer.Tests.Unit/DataSourceSingleSheet/User.xlsx
+++ b/SpreadsheetSerializer.Tests.Unit/DataSourceSingleSheet/User.xlsx
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{83571e3a-db78-40b3-acaa-ddec062a0c68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{8e796339-349c-4eb0-8d7c-72e0ebca1b39}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
